--- a/data/S4Loader_configs/s4_to_pdt_one_to_one_mapping.xlsx
+++ b/data/S4Loader_configs/s4_to_pdt_one_to_one_mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\work\work-flix\data\S4Loader_configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\bin\s4loader\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B81ED10-C15E-415B-9D4A-42A866336537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935BE1D2-2D06-40ED-98EF-93762DAFC9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="756" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="KISK" sheetId="11" r:id="rId11"/>
     <sheet name="LIDE" sheetId="12" r:id="rId12"/>
     <sheet name="LSTN" sheetId="13" r:id="rId13"/>
-    <sheet name="MCCE" sheetId="14" r:id="rId14"/>
+    <sheet name="MCCE" sheetId="30" r:id="rId14"/>
     <sheet name="NETW" sheetId="15" r:id="rId15"/>
     <sheet name="PODE" sheetId="16" r:id="rId16"/>
     <sheet name="PSTN" sheetId="17" r:id="rId17"/>
@@ -5026,18 +5026,18 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:C330"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C4E711-5642-4827-ABA3-DEB4484E578A}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5139,790 +5139,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="1"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="1"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="1"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212" s="1"/>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C214" s="1"/>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C215" s="1"/>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C216" s="1"/>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C218" s="1"/>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C219" s="1"/>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C220" s="1"/>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C221" s="1"/>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C223" s="1"/>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225" s="1"/>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226" s="1"/>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C227" s="1"/>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C228" s="1"/>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229" s="1"/>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230" s="1"/>
-    </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C231" s="1"/>
-    </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C232" s="1"/>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C233" s="1"/>
-    </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C234" s="1"/>
-    </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C235" s="1"/>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C236" s="1"/>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C239" s="1"/>
-    </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C240" s="1"/>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" s="1"/>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" s="1"/>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244" s="1"/>
-    </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245" s="1"/>
-    </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246" s="1"/>
-    </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247" s="1"/>
-    </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" s="1"/>
-    </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249" s="1"/>
-    </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250" s="1"/>
-    </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251" s="1"/>
-    </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C252" s="1"/>
-    </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C253" s="1"/>
-    </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C254" s="1"/>
-    </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C255" s="1"/>
-    </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C256" s="1"/>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C257" s="1"/>
-    </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C258" s="1"/>
-    </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C259" s="1"/>
-    </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C260" s="1"/>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261" s="1"/>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262" s="1"/>
-    </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C263" s="1"/>
-    </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C265" s="1"/>
-    </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C266" s="1"/>
-    </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C267" s="1"/>
-    </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C268" s="1"/>
-    </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C269" s="1"/>
-    </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C270" s="1"/>
-    </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C271" s="1"/>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273" s="1"/>
-    </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" s="1"/>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275" s="1"/>
-    </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276" s="1"/>
-    </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277" s="1"/>
-    </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278" s="1"/>
-    </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280" s="1"/>
-    </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C281" s="1"/>
-    </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C282" s="1"/>
-    </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C283" s="1"/>
-    </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C284" s="1"/>
-    </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C285" s="1"/>
-    </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C286" s="1"/>
-    </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C288" s="1"/>
-    </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C289" s="1"/>
-    </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C290" s="1"/>
-    </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C291" s="1"/>
-    </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C292" s="1"/>
-    </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C293" s="1"/>
-    </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C294" s="1"/>
-    </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C296" s="1"/>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C297" s="1"/>
-    </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C298" s="1"/>
-    </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C299" s="1"/>
-    </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C300" s="1"/>
-    </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C301" s="1"/>
-    </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C302" s="1"/>
-    </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C303" s="1"/>
-    </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="1"/>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="1"/>
-    </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324" s="1"/>
-    </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326" s="1"/>
-    </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327" s="1"/>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C328" s="1"/>
-    </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C329" s="1"/>
-    </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C330" s="1"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5930,7 +5148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>

--- a/data/S4Loader_configs/s4_to_pdt_one_to_one_mapping.xlsx
+++ b/data/S4Loader_configs/s4_to_pdt_one_to_one_mapping.xlsx
@@ -5,46 +5,57 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\bin\s4loader\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\work\work-flix\data\S4Loader_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935BE1D2-2D06-40ED-98EF-93762DAFC9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1712E0-9372-4681-8FC3-2708B79378ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="756" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="827" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTU" sheetId="1" r:id="rId1"/>
     <sheet name="ANAL" sheetId="2" r:id="rId2"/>
-    <sheet name="DECT" sheetId="3" r:id="rId3"/>
-    <sheet name="DIST" sheetId="4" r:id="rId4"/>
-    <sheet name="EMTR" sheetId="5" r:id="rId5"/>
-    <sheet name="FANS" sheetId="6" r:id="rId6"/>
-    <sheet name="FIDA" sheetId="7" r:id="rId7"/>
-    <sheet name="FSTN" sheetId="8" r:id="rId8"/>
-    <sheet name="GASW" sheetId="9" r:id="rId9"/>
-    <sheet name="HEAT" sheetId="10" r:id="rId10"/>
-    <sheet name="KISK" sheetId="11" r:id="rId11"/>
-    <sheet name="LIDE" sheetId="12" r:id="rId12"/>
-    <sheet name="LSTN" sheetId="13" r:id="rId13"/>
-    <sheet name="MCCE" sheetId="30" r:id="rId14"/>
-    <sheet name="NETW" sheetId="15" r:id="rId15"/>
-    <sheet name="PODE" sheetId="16" r:id="rId16"/>
-    <sheet name="PSTN" sheetId="17" r:id="rId17"/>
-    <sheet name="PUMP" sheetId="18" r:id="rId18"/>
-    <sheet name="PUMS" sheetId="19" r:id="rId19"/>
-    <sheet name="SCRF" sheetId="20" r:id="rId20"/>
-    <sheet name="SGER" sheetId="21" r:id="rId21"/>
-    <sheet name="SPTN" sheetId="22" r:id="rId22"/>
-    <sheet name="STAR" sheetId="23" r:id="rId23"/>
-    <sheet name="TANK" sheetId="24" r:id="rId24"/>
-    <sheet name="TRUT" sheetId="25" r:id="rId25"/>
-    <sheet name="VALV" sheetId="26" r:id="rId26"/>
-    <sheet name="VEPR" sheetId="27" r:id="rId27"/>
-    <sheet name="WELL" sheetId="28" r:id="rId28"/>
-    <sheet name="SCRC" sheetId="29" r:id="rId29"/>
+    <sheet name="CONT" sheetId="31" r:id="rId3"/>
+    <sheet name="DECT" sheetId="3" r:id="rId4"/>
+    <sheet name="DIST" sheetId="4" r:id="rId5"/>
+    <sheet name="EMTR" sheetId="5" r:id="rId6"/>
+    <sheet name="FANS" sheetId="6" r:id="rId7"/>
+    <sheet name="FIDA" sheetId="7" r:id="rId8"/>
+    <sheet name="FSTN" sheetId="8" r:id="rId9"/>
+    <sheet name="GASW" sheetId="9" r:id="rId10"/>
+    <sheet name="HEAT" sheetId="10" r:id="rId11"/>
+    <sheet name="KISK" sheetId="11" r:id="rId12"/>
+    <sheet name="LIDE" sheetId="12" r:id="rId13"/>
+    <sheet name="LSTN" sheetId="13" r:id="rId14"/>
+    <sheet name="MCCE" sheetId="30" r:id="rId15"/>
+    <sheet name="NETW" sheetId="15" r:id="rId16"/>
+    <sheet name="PODE" sheetId="16" r:id="rId17"/>
+    <sheet name="PSTN" sheetId="17" r:id="rId18"/>
+    <sheet name="PUMP" sheetId="18" r:id="rId19"/>
+    <sheet name="PUMS" sheetId="19" r:id="rId20"/>
+    <sheet name="SCRF" sheetId="20" r:id="rId21"/>
+    <sheet name="SGER" sheetId="21" r:id="rId22"/>
+    <sheet name="SPTN" sheetId="22" r:id="rId23"/>
+    <sheet name="STAR" sheetId="23" r:id="rId24"/>
+    <sheet name="TANK" sheetId="24" r:id="rId25"/>
+    <sheet name="TRUT" sheetId="25" r:id="rId26"/>
+    <sheet name="VALV" sheetId="26" r:id="rId27"/>
+    <sheet name="VEPR" sheetId="27" r:id="rId28"/>
+    <sheet name="WELL" sheetId="28" r:id="rId29"/>
+    <sheet name="SCRC" sheetId="29" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -53,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="733">
   <si>
     <t>s4_equi_class</t>
   </si>
@@ -2177,6 +2188,81 @@
   </si>
   <si>
     <t>SCRC_SCREEN_WIDTH_MM</t>
+  </si>
+  <si>
+    <t>CONTEN</t>
+  </si>
+  <si>
+    <t>CONT_INSTRUMENT_POWER_W</t>
+  </si>
+  <si>
+    <t>CONT_PLC_REMOTE_INTERVENTION</t>
+  </si>
+  <si>
+    <t>CONT_RATED_VOLTAGE</t>
+  </si>
+  <si>
+    <t>CONT_RATED_VOLTAGE_UNITS</t>
+  </si>
+  <si>
+    <t>CONT_SPECIFIC_ORDER_CODE</t>
+  </si>
+  <si>
+    <t>CONTFL</t>
+  </si>
+  <si>
+    <t>CONTIP</t>
+  </si>
+  <si>
+    <t>CONTMISC</t>
+  </si>
+  <si>
+    <t>CONT_SIGNAL_TYPE</t>
+  </si>
+  <si>
+    <t>CONT_RANGE_MAX</t>
+  </si>
+  <si>
+    <t>CONT_RANGE_MIN</t>
+  </si>
+  <si>
+    <t>CONT_RANGE_UNITS</t>
+  </si>
+  <si>
+    <t>CONT_RATED_CURRENT_A</t>
+  </si>
+  <si>
+    <t>CONT_RATED_POWER_KW</t>
+  </si>
+  <si>
+    <t>CONT_SUPPLY_VOLTAGE</t>
+  </si>
+  <si>
+    <t>CONT_SUPPLY_VOLTAGE_UNITS</t>
+  </si>
+  <si>
+    <t>CONTPI</t>
+  </si>
+  <si>
+    <t>CONTPL</t>
+  </si>
+  <si>
+    <t>CONTRE</t>
+  </si>
+  <si>
+    <t>CONTRL</t>
+  </si>
+  <si>
+    <t>CONT_SIL_RATING</t>
+  </si>
+  <si>
+    <t>CONTTM</t>
+  </si>
+  <si>
+    <t>PLC Remote Intervention</t>
+  </si>
+  <si>
+    <t>SIL Rating</t>
   </si>
 </sst>
 </file>
@@ -2649,6 +2735,427 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
@@ -3164,7 +3671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3266,7 +3773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3456,7 +3963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C154"/>
   <sheetViews>
@@ -5025,11 +5532,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C4E711-5642-4827-ABA3-DEB4484E578A}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
@@ -5144,7 +5651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -5411,13 +5918,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6117,7 +6622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6236,7 +6741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C112"/>
   <sheetViews>
@@ -7478,11 +7983,2620 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C244"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>48</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>51</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>52</v>
+      </c>
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>52</v>
+      </c>
+      <c r="B135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>53</v>
+      </c>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>53</v>
+      </c>
+      <c r="B148" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>54</v>
+      </c>
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>54</v>
+      </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>54</v>
+      </c>
+      <c r="B155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>54</v>
+      </c>
+      <c r="B156" t="s">
+        <v>29</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>54</v>
+      </c>
+      <c r="B157" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>54</v>
+      </c>
+      <c r="B158" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>54</v>
+      </c>
+      <c r="B159" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>56</v>
+      </c>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>56</v>
+      </c>
+      <c r="B165" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" t="s">
+        <v>32</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>57</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>57</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>57</v>
+      </c>
+      <c r="B176" t="s">
+        <v>32</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>57</v>
+      </c>
+      <c r="B180" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>58</v>
+      </c>
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>58</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>58</v>
+      </c>
+      <c r="B183" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>58</v>
+      </c>
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>58</v>
+      </c>
+      <c r="B185" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>58</v>
+      </c>
+      <c r="B186" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>58</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>58</v>
+      </c>
+      <c r="B188" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>59</v>
+      </c>
+      <c r="B189" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>59</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>59</v>
+      </c>
+      <c r="B191" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>59</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>59</v>
+      </c>
+      <c r="B193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>59</v>
+      </c>
+      <c r="B194" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>59</v>
+      </c>
+      <c r="B195" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>59</v>
+      </c>
+      <c r="B196" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>60</v>
+      </c>
+      <c r="B197" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>60</v>
+      </c>
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>60</v>
+      </c>
+      <c r="B199" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>60</v>
+      </c>
+      <c r="B200" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>61</v>
+      </c>
+      <c r="B201" t="s">
+        <v>21</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>61</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>61</v>
+      </c>
+      <c r="B203" t="s">
+        <v>23</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>61</v>
+      </c>
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>61</v>
+      </c>
+      <c r="B205" t="s">
+        <v>27</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>61</v>
+      </c>
+      <c r="B206" t="s">
+        <v>29</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>61</v>
+      </c>
+      <c r="B207" t="s">
+        <v>31</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>61</v>
+      </c>
+      <c r="B208" t="s">
+        <v>32</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>61</v>
+      </c>
+      <c r="B209" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>61</v>
+      </c>
+      <c r="B210" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>61</v>
+      </c>
+      <c r="B211" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>61</v>
+      </c>
+      <c r="B212" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>62</v>
+      </c>
+      <c r="B213" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>62</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>62</v>
+      </c>
+      <c r="B215" t="s">
+        <v>23</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>62</v>
+      </c>
+      <c r="B216" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>62</v>
+      </c>
+      <c r="B217" t="s">
+        <v>27</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>62</v>
+      </c>
+      <c r="B218" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>62</v>
+      </c>
+      <c r="B219" t="s">
+        <v>31</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>62</v>
+      </c>
+      <c r="B220" t="s">
+        <v>32</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>62</v>
+      </c>
+      <c r="B221" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>62</v>
+      </c>
+      <c r="B222" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>62</v>
+      </c>
+      <c r="B223" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>62</v>
+      </c>
+      <c r="B224" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>63</v>
+      </c>
+      <c r="B225" t="s">
+        <v>21</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>63</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>63</v>
+      </c>
+      <c r="B227" t="s">
+        <v>23</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>63</v>
+      </c>
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>63</v>
+      </c>
+      <c r="B229" t="s">
+        <v>27</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>63</v>
+      </c>
+      <c r="B230" t="s">
+        <v>29</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>63</v>
+      </c>
+      <c r="B231" t="s">
+        <v>31</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>63</v>
+      </c>
+      <c r="B232" t="s">
+        <v>32</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>63</v>
+      </c>
+      <c r="B233" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>63</v>
+      </c>
+      <c r="B234" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>63</v>
+      </c>
+      <c r="B235" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>63</v>
+      </c>
+      <c r="B236" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>64</v>
+      </c>
+      <c r="B237" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>64</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>64</v>
+      </c>
+      <c r="B239" t="s">
+        <v>23</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>64</v>
+      </c>
+      <c r="B240" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>64</v>
+      </c>
+      <c r="B241" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>64</v>
+      </c>
+      <c r="B242" t="s">
+        <v>29</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>64</v>
+      </c>
+      <c r="B243" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>64</v>
+      </c>
+      <c r="B244" t="s">
+        <v>32</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7963,2612 +11077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C244"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>45</v>
-      </c>
-      <c r="B74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>46</v>
-      </c>
-      <c r="B82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>47</v>
-      </c>
-      <c r="B90" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>47</v>
-      </c>
-      <c r="B91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>47</v>
-      </c>
-      <c r="B92" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" t="s">
-        <v>29</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>47</v>
-      </c>
-      <c r="B94" t="s">
-        <v>31</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>47</v>
-      </c>
-      <c r="B95" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>48</v>
-      </c>
-      <c r="B96" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>48</v>
-      </c>
-      <c r="B98" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>48</v>
-      </c>
-      <c r="B99" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>48</v>
-      </c>
-      <c r="B100" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>48</v>
-      </c>
-      <c r="B101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>48</v>
-      </c>
-      <c r="B102" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>49</v>
-      </c>
-      <c r="B104" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>49</v>
-      </c>
-      <c r="B106" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>49</v>
-      </c>
-      <c r="B107" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>49</v>
-      </c>
-      <c r="B108" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>49</v>
-      </c>
-      <c r="B109" t="s">
-        <v>29</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>49</v>
-      </c>
-      <c r="B110" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>49</v>
-      </c>
-      <c r="B111" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>49</v>
-      </c>
-      <c r="B112" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>50</v>
-      </c>
-      <c r="B113" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>50</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>50</v>
-      </c>
-      <c r="B115" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" t="s">
-        <v>25</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>50</v>
-      </c>
-      <c r="B117" t="s">
-        <v>27</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>50</v>
-      </c>
-      <c r="B118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>50</v>
-      </c>
-      <c r="B119" t="s">
-        <v>31</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>50</v>
-      </c>
-      <c r="B120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>51</v>
-      </c>
-      <c r="B121" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>51</v>
-      </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>51</v>
-      </c>
-      <c r="B123" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>51</v>
-      </c>
-      <c r="B124" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>51</v>
-      </c>
-      <c r="B125" t="s">
-        <v>27</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>51</v>
-      </c>
-      <c r="B126" t="s">
-        <v>29</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>51</v>
-      </c>
-      <c r="B127" t="s">
-        <v>31</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>51</v>
-      </c>
-      <c r="B128" t="s">
-        <v>32</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>52</v>
-      </c>
-      <c r="B129" t="s">
-        <v>21</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>52</v>
-      </c>
-      <c r="B130" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>52</v>
-      </c>
-      <c r="B131" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>52</v>
-      </c>
-      <c r="B132" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>52</v>
-      </c>
-      <c r="B133" t="s">
-        <v>27</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>52</v>
-      </c>
-      <c r="B134" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>52</v>
-      </c>
-      <c r="B135" t="s">
-        <v>31</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>52</v>
-      </c>
-      <c r="B136" t="s">
-        <v>32</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>53</v>
-      </c>
-      <c r="B137" t="s">
-        <v>21</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>53</v>
-      </c>
-      <c r="B138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>53</v>
-      </c>
-      <c r="B139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>53</v>
-      </c>
-      <c r="B140" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>53</v>
-      </c>
-      <c r="B141" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>53</v>
-      </c>
-      <c r="B142" t="s">
-        <v>29</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>53</v>
-      </c>
-      <c r="B143" t="s">
-        <v>31</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>53</v>
-      </c>
-      <c r="B144" t="s">
-        <v>32</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>53</v>
-      </c>
-      <c r="B145" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>53</v>
-      </c>
-      <c r="B146" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>53</v>
-      </c>
-      <c r="B147" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>53</v>
-      </c>
-      <c r="B148" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>53</v>
-      </c>
-      <c r="B149" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>54</v>
-      </c>
-      <c r="B150" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>54</v>
-      </c>
-      <c r="B151" t="s">
-        <v>21</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>54</v>
-      </c>
-      <c r="B152" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>54</v>
-      </c>
-      <c r="B153" t="s">
-        <v>23</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>54</v>
-      </c>
-      <c r="B154" t="s">
-        <v>25</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>54</v>
-      </c>
-      <c r="B155" t="s">
-        <v>27</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>54</v>
-      </c>
-      <c r="B156" t="s">
-        <v>29</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>54</v>
-      </c>
-      <c r="B157" t="s">
-        <v>31</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>54</v>
-      </c>
-      <c r="B158" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>54</v>
-      </c>
-      <c r="B159" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>56</v>
-      </c>
-      <c r="B160" t="s">
-        <v>21</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>56</v>
-      </c>
-      <c r="B161" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>56</v>
-      </c>
-      <c r="B162" t="s">
-        <v>23</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>56</v>
-      </c>
-      <c r="B163" t="s">
-        <v>25</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>56</v>
-      </c>
-      <c r="B164" t="s">
-        <v>27</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>56</v>
-      </c>
-      <c r="B165" t="s">
-        <v>29</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>56</v>
-      </c>
-      <c r="B166" t="s">
-        <v>31</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>56</v>
-      </c>
-      <c r="B167" t="s">
-        <v>32</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>56</v>
-      </c>
-      <c r="B168" t="s">
-        <v>35</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>57</v>
-      </c>
-      <c r="B169" t="s">
-        <v>21</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>57</v>
-      </c>
-      <c r="B170" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>57</v>
-      </c>
-      <c r="B171" t="s">
-        <v>23</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>57</v>
-      </c>
-      <c r="B172" t="s">
-        <v>25</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>57</v>
-      </c>
-      <c r="B173" t="s">
-        <v>27</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>57</v>
-      </c>
-      <c r="B174" t="s">
-        <v>29</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>57</v>
-      </c>
-      <c r="B175" t="s">
-        <v>31</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>57</v>
-      </c>
-      <c r="B176" t="s">
-        <v>32</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>57</v>
-      </c>
-      <c r="B177" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>57</v>
-      </c>
-      <c r="B178" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>57</v>
-      </c>
-      <c r="B179" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>57</v>
-      </c>
-      <c r="B180" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>58</v>
-      </c>
-      <c r="B181" t="s">
-        <v>21</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>58</v>
-      </c>
-      <c r="B182" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>58</v>
-      </c>
-      <c r="B183" t="s">
-        <v>23</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>58</v>
-      </c>
-      <c r="B184" t="s">
-        <v>25</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>58</v>
-      </c>
-      <c r="B185" t="s">
-        <v>27</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>58</v>
-      </c>
-      <c r="B186" t="s">
-        <v>29</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>58</v>
-      </c>
-      <c r="B187" t="s">
-        <v>31</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>58</v>
-      </c>
-      <c r="B188" t="s">
-        <v>32</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>59</v>
-      </c>
-      <c r="B189" t="s">
-        <v>21</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>59</v>
-      </c>
-      <c r="B190" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>59</v>
-      </c>
-      <c r="B191" t="s">
-        <v>23</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>59</v>
-      </c>
-      <c r="B192" t="s">
-        <v>25</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>59</v>
-      </c>
-      <c r="B193" t="s">
-        <v>27</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>59</v>
-      </c>
-      <c r="B194" t="s">
-        <v>29</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>59</v>
-      </c>
-      <c r="B195" t="s">
-        <v>31</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>59</v>
-      </c>
-      <c r="B196" t="s">
-        <v>32</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>60</v>
-      </c>
-      <c r="B197" t="s">
-        <v>23</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>60</v>
-      </c>
-      <c r="B198" t="s">
-        <v>25</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>60</v>
-      </c>
-      <c r="B199" t="s">
-        <v>27</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>60</v>
-      </c>
-      <c r="B200" t="s">
-        <v>29</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>61</v>
-      </c>
-      <c r="B201" t="s">
-        <v>21</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>61</v>
-      </c>
-      <c r="B202" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>61</v>
-      </c>
-      <c r="B203" t="s">
-        <v>23</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>61</v>
-      </c>
-      <c r="B204" t="s">
-        <v>25</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>61</v>
-      </c>
-      <c r="B205" t="s">
-        <v>27</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>61</v>
-      </c>
-      <c r="B206" t="s">
-        <v>29</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>61</v>
-      </c>
-      <c r="B207" t="s">
-        <v>31</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>61</v>
-      </c>
-      <c r="B208" t="s">
-        <v>32</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>61</v>
-      </c>
-      <c r="B209" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>61</v>
-      </c>
-      <c r="B210" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>61</v>
-      </c>
-      <c r="B211" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>61</v>
-      </c>
-      <c r="B212" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>62</v>
-      </c>
-      <c r="B213" t="s">
-        <v>21</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>62</v>
-      </c>
-      <c r="B214" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>62</v>
-      </c>
-      <c r="B215" t="s">
-        <v>23</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>62</v>
-      </c>
-      <c r="B216" t="s">
-        <v>25</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>62</v>
-      </c>
-      <c r="B217" t="s">
-        <v>27</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>62</v>
-      </c>
-      <c r="B218" t="s">
-        <v>29</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>62</v>
-      </c>
-      <c r="B219" t="s">
-        <v>31</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>62</v>
-      </c>
-      <c r="B220" t="s">
-        <v>32</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>62</v>
-      </c>
-      <c r="B221" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>62</v>
-      </c>
-      <c r="B222" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>62</v>
-      </c>
-      <c r="B223" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>62</v>
-      </c>
-      <c r="B224" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>63</v>
-      </c>
-      <c r="B225" t="s">
-        <v>21</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>63</v>
-      </c>
-      <c r="B226" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>63</v>
-      </c>
-      <c r="B227" t="s">
-        <v>23</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>63</v>
-      </c>
-      <c r="B228" t="s">
-        <v>25</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>63</v>
-      </c>
-      <c r="B229" t="s">
-        <v>27</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>63</v>
-      </c>
-      <c r="B230" t="s">
-        <v>29</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>63</v>
-      </c>
-      <c r="B231" t="s">
-        <v>31</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>63</v>
-      </c>
-      <c r="B232" t="s">
-        <v>32</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>63</v>
-      </c>
-      <c r="B233" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>63</v>
-      </c>
-      <c r="B234" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>63</v>
-      </c>
-      <c r="B235" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>63</v>
-      </c>
-      <c r="B236" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>64</v>
-      </c>
-      <c r="B237" t="s">
-        <v>21</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>64</v>
-      </c>
-      <c r="B238" t="s">
-        <v>8</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>64</v>
-      </c>
-      <c r="B239" t="s">
-        <v>23</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>64</v>
-      </c>
-      <c r="B240" t="s">
-        <v>25</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>64</v>
-      </c>
-      <c r="B241" t="s">
-        <v>27</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>64</v>
-      </c>
-      <c r="B242" t="s">
-        <v>29</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>64</v>
-      </c>
-      <c r="B243" t="s">
-        <v>31</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>64</v>
-      </c>
-      <c r="B244" t="s">
-        <v>32</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C83"/>
   <sheetViews>
@@ -11428,7 +11937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
@@ -12507,7 +13016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -12760,7 +13269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
@@ -13566,7 +14075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -13859,7 +14368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -14211,7 +14720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
@@ -14658,7 +15167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:C220"/>
   <sheetViews>
@@ -16899,7 +17408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -16965,7 +17474,500 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB49D98A-2650-4246-85B1-564758998E8B}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B12" t="s">
+        <v>709</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B13" t="s">
+        <v>711</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>715</v>
+      </c>
+      <c r="B14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>715</v>
+      </c>
+      <c r="B15" t="s">
+        <v>713</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>716</v>
+      </c>
+      <c r="B16" t="s">
+        <v>709</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>716</v>
+      </c>
+      <c r="B17" t="s">
+        <v>718</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>716</v>
+      </c>
+      <c r="B18" t="s">
+        <v>719</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B19" t="s">
+        <v>720</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>716</v>
+      </c>
+      <c r="B20" t="s">
+        <v>721</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>716</v>
+      </c>
+      <c r="B21" t="s">
+        <v>722</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>716</v>
+      </c>
+      <c r="B22" t="s">
+        <v>711</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>716</v>
+      </c>
+      <c r="B23" t="s">
+        <v>712</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>716</v>
+      </c>
+      <c r="B24" t="s">
+        <v>717</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>716</v>
+      </c>
+      <c r="B25" t="s">
+        <v>723</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>716</v>
+      </c>
+      <c r="B26" t="s">
+        <v>724</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>716</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>725</v>
+      </c>
+      <c r="B28" t="s">
+        <v>709</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>725</v>
+      </c>
+      <c r="B29" t="s">
+        <v>711</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>725</v>
+      </c>
+      <c r="B30" t="s">
+        <v>712</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>726</v>
+      </c>
+      <c r="B31" t="s">
+        <v>709</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>726</v>
+      </c>
+      <c r="B32" t="s">
+        <v>711</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>726</v>
+      </c>
+      <c r="B33" t="s">
+        <v>712</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>727</v>
+      </c>
+      <c r="B34" t="s">
+        <v>711</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>727</v>
+      </c>
+      <c r="B35" t="s">
+        <v>712</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>728</v>
+      </c>
+      <c r="B36" t="s">
+        <v>711</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>728</v>
+      </c>
+      <c r="B37" t="s">
+        <v>712</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>728</v>
+      </c>
+      <c r="B38" t="s">
+        <v>729</v>
+      </c>
+      <c r="C38" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>728</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>730</v>
+      </c>
+      <c r="B40" t="s">
+        <v>718</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>730</v>
+      </c>
+      <c r="B41" t="s">
+        <v>719</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>730</v>
+      </c>
+      <c r="B42" t="s">
+        <v>720</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>730</v>
+      </c>
+      <c r="B43" t="s">
+        <v>717</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -17039,7 +18041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -17307,7 +18309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -17442,7 +18444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
@@ -18166,7 +19168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -18528,7 +19530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -18685,7 +19687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
@@ -20137,425 +21139,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>234</v>
-      </c>
-      <c r="B32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B34" t="s">
-        <v>221</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>